--- a/pred_ohlcv/54_21/2020-01-16 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 SOC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3976513.065456428</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3277325.685256428</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3641264.270956428</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3297055.845656428</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2529901.728256428</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1091068.441556428</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>228324.5321564276</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>228324.5321564276</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>383243.0515564276</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>351817.4876564275</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-74234.47349965894</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-100708.0662054555</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-270654.280181884</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-170505.7782818839</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-188397.7118818839</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-168552.1246818839</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-168552.1246818839</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-172324.1128818839</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-40147.66338188393</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>33636.49631811607</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-22970.60808188393</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>169355.7476181161</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>141065.6565181161</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>197286.8771181161</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>85395.65181811606</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>85395.65181811606</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>136278.4099181161</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>187124.1729181161</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>121860.9184181161</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>163473.029218116</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>163473.029218116</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>163473.029218116</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>163473.029218116</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>163473.029218116</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>163473.029218116</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>311246.393818116</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>263664.2064181161</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>3158.984518116049</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>3158.984518116049</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>3158.984518116049</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-79720.32398188395</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-92052.38028188395</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-97396.29488188395</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-2426266.523180989</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-2374971.187180989</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-2374421.161580989</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-2378421.161580989</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-2372443.729380989</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-8247015.39558772</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-8211468.08448772</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-8211468.08448772</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 SOC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3976513.065456428</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3277325.685256428</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3641264.270956428</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3297055.845656428</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2529901.728256428</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1091068.441556428</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>228324.5321564276</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>279364.1137564275</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>600923.4191564275</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>695553.0652564275</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>596989.2794564276</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>516560.0087564276</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>302269.6699564275</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>302269.6699564275</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>248112.0442427912</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>206520.5166427912</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>113786.2064427912</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>215325.5998427912</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>256611.1168427912</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>256611.1168427912</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>115347.3873003411</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-89702.40579965894</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-89702.40579965894</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-89702.40579965894</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-74234.47349965894</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-284592.999799659</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-284592.999799659</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-90071.41350545552</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-188397.7118818839</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-168552.1246818839</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-168552.1246818839</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-172324.1128818839</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-40147.66338188393</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>33636.49631811607</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-22970.60808188393</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>163473.029218116</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>163473.029218116</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-2426266.523180989</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-2374971.187180989</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-2374421.161580989</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-2378421.161580989</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-2372443.729380989</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-8247015.39558772</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-8156247.21558772</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-8155506.865587721</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-8155506.865587721</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-8211468.08448772</v>
       </c>
       <c r="H845">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
